--- a/pyRevitnvn.tab/Training.panel/hcolor.pushbutton/lcolor.xlsx
+++ b/pyRevitnvn.tab/Training.panel/hcolor.pushbutton/lcolor.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit\Extensions\Pyrevitnvn.extension\pyRevitnvn.tab\Training.panel\ElementChangeLevel.pushbutton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit\Extensions\Pyrevitnvn.extension\pyRevitnvn.tab\Training.panel\hcolor.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7488F1-3BC5-49C1-B1B0-6CB69B6FD30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C19A18E-B16A-420F-8A57-D89BCD06A3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="800" windowWidth="13470" windowHeight="8030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="color" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -430,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
